--- a/MainTop/31.09.2024/макс_наклейки_sorted.xlsx
+++ b/MainTop/31.09.2024/макс_наклейки_sorted.xlsx
@@ -375,10 +375,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S11" activeCellId="0" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2627,17 +2627,9 @@
       <c r="K64" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L64" s="0" t="n">
-        <f aca="false">J64/4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J65" s="0" t="n">
-        <f aca="false">SUM(J2:J64)</f>
-        <v>516</v>
-      </c>
-    </row>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/MainTop/31.09.2024/макс_наклейки_sorted.xlsx
+++ b/MainTop/31.09.2024/макс_наклейки_sorted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="89">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -53,6 +53,36 @@
   </si>
   <si>
     <t xml:space="preserve">Тип упорядочить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г10</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Дали Ван Гог Фрида Кало в машине</t>
@@ -375,15 +405,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S11" activeCellId="0" sqref="S11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
@@ -422,10 +452,40 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4</v>
@@ -437,13 +497,13 @@
         <v>18.18</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>18.38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>16</v>
@@ -455,12 +515,12 @@
         <v>16</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
@@ -472,13 +532,13 @@
         <v>23.53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>31</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>11</v>
@@ -490,12 +550,12 @@
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>9</v>
@@ -507,13 +567,13 @@
         <v>50</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>39.73</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>7</v>
@@ -525,12 +585,12 @@
         <v>8</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>6</v>
@@ -542,13 +602,13 @@
         <v>50</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>41.14</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>5</v>
@@ -560,12 +620,12 @@
         <v>6</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
@@ -577,13 +637,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>47.17</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>6</v>
@@ -595,12 +655,12 @@
         <v>6</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4</v>
@@ -612,13 +672,13 @@
         <v>40</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>60.5</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>5</v>
@@ -630,12 +690,12 @@
         <v>6</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>4</v>
@@ -647,13 +707,13 @@
         <v>40</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>5</v>
@@ -665,12 +725,12 @@
         <v>6</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>3</v>
@@ -682,13 +742,13 @@
         <v>30</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>51.17</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>6</v>
@@ -700,12 +760,12 @@
         <v>6</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -717,13 +777,13 @@
         <v>12.5</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>41.4</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>6</v>
@@ -735,12 +795,12 @@
         <v>6</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10</v>
@@ -752,13 +812,13 @@
         <v>66.67</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>61.22</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>4</v>
@@ -770,12 +830,12 @@
         <v>4</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>12</v>
@@ -787,13 +847,13 @@
         <v>80</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>79.22</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>2</v>
@@ -805,12 +865,12 @@
         <v>2</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>9</v>
@@ -822,13 +882,13 @@
         <v>75</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>79.14</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>2</v>
@@ -840,12 +900,12 @@
         <v>2</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>10</v>
@@ -857,13 +917,13 @@
         <v>83.33</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>75.14</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -875,12 +935,12 @@
         <v>2</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>8</v>
@@ -892,13 +952,13 @@
         <v>100</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>65.2</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -910,12 +970,12 @@
         <v>2</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>10</v>
@@ -927,13 +987,13 @@
         <v>142.86</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>110</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -945,12 +1005,12 @@
         <v>2</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>12</v>
@@ -962,13 +1022,13 @@
         <v>171.43</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>140.25</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -980,12 +1040,12 @@
         <v>2</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
@@ -997,13 +1057,13 @@
         <v>142.86</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>153.5</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -1015,12 +1075,12 @@
         <v>2</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>3</v>
@@ -1032,13 +1092,13 @@
         <v>60</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>92</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>2</v>
@@ -1050,12 +1110,12 @@
         <v>2</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>21</v>
@@ -1067,13 +1127,13 @@
         <v>19.44</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>19.57</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>76</v>
@@ -1085,12 +1145,46 @@
         <v>64</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <f aca="false">SUM(L20:U20)-J20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>25</v>
@@ -1102,13 +1196,13 @@
         <v>41.67</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>39.92</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>29</v>
@@ -1120,12 +1214,46 @@
         <v>32</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <f aca="false">SUM(L21:U21)-J21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1137,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>41.42</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>18</v>
@@ -1155,12 +1283,46 @@
         <v>20</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <f aca="false">SUM(L22:U22)-J22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>14</v>
@@ -1172,13 +1334,13 @@
         <v>43.75</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>71</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>15</v>
@@ -1190,12 +1352,46 @@
         <v>16</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <f aca="false">SUM(L23:U23)-J23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>5</v>
@@ -1207,13 +1403,13 @@
         <v>22.73</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>37.08</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>15</v>
@@ -1225,12 +1421,46 @@
         <v>20</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <f aca="false">SUM(L24:U24)-J24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
@@ -1242,13 +1472,13 @@
         <v>5</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>24.17</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>17</v>
@@ -1260,12 +1490,46 @@
         <v>20</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <f aca="false">SUM(L25:U25)-J25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>29</v>
@@ -1277,13 +1541,13 @@
         <v>60.42</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>71.62</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>14</v>
@@ -1295,12 +1559,46 @@
         <v>16</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <f aca="false">SUM(L26:U26)-J26</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>12</v>
@@ -1312,13 +1610,13 @@
         <v>41.38</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>49.41</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>14</v>
@@ -1330,12 +1628,46 @@
         <v>16</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <f aca="false">SUM(L27:U27)-J27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3</v>
@@ -1347,13 +1679,13 @@
         <v>16.67</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>20.73</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>13</v>
@@ -1365,12 +1697,46 @@
         <v>16</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <f aca="false">SUM(L28:U28)-J28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>13</v>
@@ -1382,13 +1748,13 @@
         <v>52</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>60.47</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>10</v>
@@ -1400,12 +1766,46 @@
         <v>16</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <f aca="false">SUM(L29:U29)-J29</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>3</v>
@@ -1417,13 +1817,13 @@
         <v>23.08</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>71.12</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>9</v>
@@ -1435,12 +1835,46 @@
         <v>16</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <f aca="false">SUM(L30:U30)-J30</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>6</v>
@@ -1452,13 +1886,13 @@
         <v>35.29</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>76.3</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>9</v>
@@ -1470,12 +1904,46 @@
         <v>12</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <f aca="false">SUM(L31:U31)-J31</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>32</v>
@@ -1487,13 +1955,13 @@
         <v>74.42</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>37.58</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>7</v>
@@ -1505,12 +1973,46 @@
         <v>8</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <f aca="false">SUM(L32:U32)-J32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>7</v>
@@ -1522,13 +2024,13 @@
         <v>46.67</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>71.89</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>7</v>
@@ -1540,12 +2042,46 @@
         <v>8</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <f aca="false">SUM(L33:U33)-J33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>17</v>
@@ -1557,13 +2093,13 @@
         <v>113.33</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>88.56</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
@@ -1575,12 +2111,46 @@
         <v>8</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <f aca="false">SUM(L34:U34)-J34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -1592,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>46.2</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>7</v>
@@ -1610,12 +2180,46 @@
         <v>8</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <f aca="false">SUM(L35:U35)-J35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>6</v>
@@ -1627,13 +2231,13 @@
         <v>50</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>52.71</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>5</v>
@@ -1645,12 +2249,46 @@
         <v>8</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <f aca="false">SUM(L36:U36)-J36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>4</v>
@@ -1662,13 +2300,13 @@
         <v>40</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>34.8</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>5</v>
@@ -1680,12 +2318,46 @@
         <v>8</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <f aca="false">SUM(L37:U37)-J37</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>4</v>
@@ -1697,13 +2369,13 @@
         <v>40</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>83.33</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>5</v>
@@ -1715,12 +2387,46 @@
         <v>8</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <f aca="false">SUM(L38:U38)-J38</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>49</v>
@@ -1732,13 +2438,13 @@
         <v>89.09</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>119</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
@@ -1750,12 +2456,46 @@
         <v>4</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <f aca="false">SUM(L39:U39)-J39</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>18</v>
@@ -1767,13 +2507,13 @@
         <v>90</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>117.92</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>0</v>
@@ -1785,12 +2525,46 @@
         <v>4</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <f aca="false">SUM(L40:U40)-J40</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>20</v>
@@ -1802,13 +2576,13 @@
         <v>117.65</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>139.7</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -1820,12 +2594,46 @@
         <v>4</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <f aca="false">SUM(L41:U41)-J41</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>10</v>
@@ -1837,13 +2645,13 @@
         <v>66.67</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>50.78</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>4</v>
@@ -1855,12 +2663,46 @@
         <v>4</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <f aca="false">SUM(L42:U42)-J42</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>17</v>
@@ -1872,13 +2714,13 @@
         <v>130.77</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>162.12</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -1890,12 +2732,46 @@
         <v>4</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <f aca="false">SUM(L43:U43)-J43</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>19</v>
@@ -1907,13 +2783,13 @@
         <v>146.15</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>127.38</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
@@ -1925,12 +2801,46 @@
         <v>4</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <f aca="false">SUM(L44:U44)-J44</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>12</v>
@@ -1942,13 +2852,13 @@
         <v>92.31</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>97</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -1960,12 +2870,46 @@
         <v>4</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <f aca="false">SUM(L45:U45)-J45</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>7</v>
@@ -1977,13 +2921,13 @@
         <v>58.33</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>99.29</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>4</v>
@@ -1995,12 +2939,46 @@
         <v>4</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <f aca="false">SUM(L46:U46)-J46</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>10</v>
@@ -2012,13 +2990,13 @@
         <v>100</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>133.17</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
@@ -2030,12 +3008,46 @@
         <v>4</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <f aca="false">SUM(L47:U47)-J47</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>10</v>
@@ -2047,13 +3059,13 @@
         <v>100</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>95.83</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
@@ -2065,12 +3077,46 @@
         <v>4</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <f aca="false">SUM(L48:U48)-J48</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>9</v>
@@ -2082,13 +3128,13 @@
         <v>112.5</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>103.8</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -2100,12 +3146,46 @@
         <v>4</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <f aca="false">SUM(L49:U49)-J49</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>7</v>
@@ -2117,13 +3197,13 @@
         <v>87.5</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>79</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>0</v>
@@ -2135,12 +3215,46 @@
         <v>4</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" s="0" t="n">
+        <f aca="false">SUM(L50:U50)-J50</f>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>11</v>
@@ -2152,13 +3266,13 @@
         <v>137.5</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>138</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>0</v>
@@ -2170,12 +3284,46 @@
         <v>4</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" s="0" t="n">
+        <f aca="false">SUM(L51:U51)-J51</f>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>10</v>
@@ -2187,13 +3335,13 @@
         <v>125</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>121</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>0</v>
@@ -2205,12 +3353,46 @@
         <v>4</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" s="0" t="n">
+        <f aca="false">SUM(L52:U52)-J52</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>11</v>
@@ -2222,13 +3404,13 @@
         <v>137.5</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>138.2</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>0</v>
@@ -2240,12 +3422,46 @@
         <v>4</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" s="0" t="n">
+        <f aca="false">SUM(L53:U53)-J53</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>11</v>
@@ -2257,13 +3473,13 @@
         <v>137.5</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>97</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>0</v>
@@ -2275,12 +3491,46 @@
         <v>4</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" s="0" t="n">
+        <f aca="false">SUM(L54:U54)-J54</f>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>12</v>
@@ -2292,13 +3542,13 @@
         <v>171.43</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>109.75</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>0</v>
@@ -2310,12 +3560,46 @@
         <v>4</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" s="0" t="n">
+        <f aca="false">SUM(L55:U55)-J55</f>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>9</v>
@@ -2327,13 +3611,13 @@
         <v>128.57</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>112.75</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>0</v>
@@ -2345,12 +3629,46 @@
         <v>4</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" s="0" t="n">
+        <f aca="false">SUM(L56:U56)-J56</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>7</v>
@@ -2362,13 +3680,13 @@
         <v>100</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>101.75</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
@@ -2380,12 +3698,46 @@
         <v>4</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" s="0" t="n">
+        <f aca="false">SUM(L57:U57)-J57</f>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>6</v>
@@ -2397,13 +3749,13 @@
         <v>120</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>91.33</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
@@ -2415,12 +3767,46 @@
         <v>4</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" s="0" t="n">
+        <f aca="false">SUM(L58:U58)-J58</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>6</v>
@@ -2432,13 +3818,13 @@
         <v>120</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>83</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
@@ -2450,12 +3836,46 @@
         <v>4</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" s="0" t="n">
+        <f aca="false">SUM(L59:U59)-J59</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>8</v>
@@ -2467,13 +3887,13 @@
         <v>160</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>134</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>0</v>
@@ -2485,12 +3905,46 @@
         <v>4</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" s="0" t="n">
+        <f aca="false">SUM(L60:U60)-J60</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2</v>
@@ -2502,13 +3956,13 @@
         <v>40</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>96.67</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>3</v>
@@ -2520,12 +3974,46 @@
         <v>4</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <f aca="false">SUM(L61:U61)-J61</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>7</v>
@@ -2537,13 +4025,13 @@
         <v>70</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>78.83</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>2</v>
@@ -2555,12 +4043,46 @@
         <v>4</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <f aca="false">SUM(L62:U62)-J62</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>8</v>
@@ -2572,13 +4094,13 @@
         <v>80</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>74.17</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>1</v>
@@ -2590,12 +4112,46 @@
         <v>4</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <f aca="false">SUM(L63:U63)-J63</f>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>42</v>
@@ -2607,13 +4163,13 @@
         <v>140</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>154.5</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
@@ -2625,7 +4181,41 @@
         <v>4</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <f aca="false">SUM(L64:U64)-J64</f>
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
